--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BEBC2-8AF9-477D-B0D9-908FC8F01174}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9036" yWindow="684" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,106 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>塔ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下塔索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔1塔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +142,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +426,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="30" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BEBC2-8AF9-477D-B0D9-908FC8F01174}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D23E2-4AAE-47C1-8B29-DC6BC20AB5D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9036" yWindow="684" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="1044" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,59 @@
   <si>
     <t>塔1塔1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>塔2</t>
+  </si>
+  <si>
+    <t>塔1塔2</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Tower/2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>塔3</t>
+  </si>
+  <si>
+    <t>塔1塔3</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Tower/3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>塔4</t>
+  </si>
+  <si>
+    <t>塔1塔4</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Tower/4</t>
   </si>
 </sst>
 </file>
@@ -427,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,7 +491,7 @@
     <col min="1" max="30" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +528,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -505,13 +561,139 @@
         <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D23E2-4AAE-47C1-8B29-DC6BC20AB5D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123090E5-946A-4F14-9248-3ECD1BF396BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="1044" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="14268" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子弹索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下塔索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,6 +145,18 @@
   </si>
   <si>
     <t>Tower/4</t>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullect/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -483,7 +487,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -523,177 +527,177 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123090E5-946A-4F14-9248-3ECD1BF396BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CBA5F1-AC86-481C-86AD-566601A7DCD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="360" windowWidth="14268" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,14 @@
   </si>
   <si>
     <t>Bullect/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullect/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +495,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -603,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>16</v>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CBA5F1-AC86-481C-86AD-566601A7DCD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B54DC14-BB31-4F9B-B5C9-6C5805EBAA74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="360" windowWidth="14268" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullect/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullect/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +507,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -649,16 +661,16 @@
         <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
@@ -699,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>16</v>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B54DC14-BB31-4F9B-B5C9-6C5805EBAA74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF694C98-6DC1-4570-80D7-E7EAD1E33DA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="360" windowWidth="14268" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
   </si>
   <si>
     <t>Bullect/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -507,7 +503,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -579,10 +575,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -623,7 +619,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -661,16 +657,16 @@
         <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
@@ -711,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>16</v>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF694C98-6DC1-4570-80D7-E7EAD1E33DA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED7B1B3-4A43-45E4-8A8C-CFCC9EE72D7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="14268" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="94">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,23 +86,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>塔1塔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔1塔1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>塔2</t>
@@ -114,9 +106,6 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>Tower/2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -129,9 +118,6 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>Tower/3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -144,9 +130,6 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>Tower/4</t>
-  </si>
-  <si>
     <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,24 +138,194 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bullect/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullect/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullect/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullect/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>塔5</t>
+  </si>
+  <si>
+    <t>塔6</t>
+  </si>
+  <si>
+    <t>塔7</t>
+  </si>
+  <si>
+    <t>塔8</t>
+  </si>
+  <si>
+    <t>塔9</t>
+  </si>
+  <si>
+    <t>塔10</t>
+  </si>
+  <si>
+    <t>塔11</t>
+  </si>
+  <si>
+    <t>塔12</t>
+  </si>
+  <si>
+    <t>塔13</t>
+  </si>
+  <si>
+    <t>塔14</t>
+  </si>
+  <si>
+    <t>塔15</t>
+  </si>
+  <si>
+    <t>塔5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>塔16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Tower/Tower_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower/Tower_2</t>
+  </si>
+  <si>
+    <t>Tower/Tower_3</t>
+  </si>
+  <si>
+    <t>Tower/Tower_4</t>
+  </si>
+  <si>
+    <t>Tower/Tower_5</t>
+  </si>
+  <si>
+    <t>Tower/Tower_6</t>
+  </si>
+  <si>
+    <t>Tower/Tower_7</t>
+  </si>
+  <si>
+    <t>Tower/Tower_8</t>
+  </si>
+  <si>
+    <t>Tower/Tower_9</t>
+  </si>
+  <si>
+    <t>Tower/Tower_10</t>
+  </si>
+  <si>
+    <t>Tower/Tower_11</t>
+  </si>
+  <si>
+    <t>Tower/Tower_12</t>
+  </si>
+  <si>
+    <t>Tower/Tower_13</t>
+  </si>
+  <si>
+    <t>Tower/Tower_14</t>
+  </si>
+  <si>
+    <t>Tower/Tower_15</t>
+  </si>
+  <si>
+    <t>Tower/Tower_16</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullect/Bullect_2</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_3</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_4</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_5</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_6</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_7</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_8</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_9</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_10</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_11</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_12</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_13</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_14</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_15</t>
+  </si>
+  <si>
+    <t>Bullect/Bullect_16</t>
   </si>
 </sst>
 </file>
@@ -500,15 +653,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="30" width="8.88671875" style="1"/>
+    <col min="1" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="20.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="16.44140625" style="1" customWidth="1"/>
+    <col min="14" max="30" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -543,16 +700,16 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -560,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -575,145 +732,637 @@
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>34</v>
+      <c r="M8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED7B1B3-4A43-45E4-8A8C-CFCC9EE72D7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477AC6F8-9D76-44C6-AA14-0A6040641C24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>塔1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>塔1塔1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,36 +89,18 @@
     <t>2</t>
   </si>
   <si>
-    <t>塔2</t>
-  </si>
-  <si>
-    <t>塔1塔2</t>
-  </si>
-  <si>
     <t>1.4</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>塔3</t>
-  </si>
-  <si>
-    <t>塔1塔3</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>塔4</t>
-  </si>
-  <si>
-    <t>塔1塔4</t>
-  </si>
-  <si>
     <t>1.6</t>
   </si>
   <si>
@@ -175,61 +149,9 @@
     <t>15</t>
   </si>
   <si>
-    <t>塔5</t>
-  </si>
-  <si>
-    <t>塔6</t>
-  </si>
-  <si>
-    <t>塔7</t>
-  </si>
-  <si>
-    <t>塔8</t>
-  </si>
-  <si>
-    <t>塔9</t>
-  </si>
-  <si>
-    <t>塔10</t>
-  </si>
-  <si>
-    <t>塔11</t>
-  </si>
-  <si>
-    <t>塔12</t>
-  </si>
-  <si>
-    <t>塔13</t>
-  </si>
-  <si>
-    <t>塔14</t>
-  </si>
-  <si>
-    <t>塔15</t>
-  </si>
-  <si>
-    <t>塔5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>塔16</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Tower/Tower_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,40 +214,166 @@
     <t>Bullect/Bullect_4</t>
   </si>
   <si>
-    <t>Bullect/Bullect_5</t>
-  </si>
-  <si>
     <t>Bullect/Bullect_6</t>
   </si>
   <si>
     <t>Bullect/Bullect_7</t>
   </si>
   <si>
-    <t>Bullect/Bullect_8</t>
-  </si>
-  <si>
-    <t>Bullect/Bullect_9</t>
-  </si>
-  <si>
     <t>Bullect/Bullect_10</t>
   </si>
   <si>
     <t>Bullect/Bullect_11</t>
   </si>
   <si>
-    <t>Bullect/Bullect_12</t>
-  </si>
-  <si>
-    <t>Bullect/Bullect_13</t>
-  </si>
-  <si>
     <t>Bullect/Bullect_14</t>
   </si>
   <si>
     <t>Bullect/Bullect_15</t>
   </si>
   <si>
-    <t>Bullect/Bullect_16</t>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以从远处打击敌人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽头箭塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽头箭造成更多的伤害，范围更远。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神射塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达这个级别的箭塔，攻击范围和伤害都远在其他箭塔之上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游射塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出的箭矢更快更远。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速的时间变得更长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人适当的减速。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火炮塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮轰地面的敌人，造成大量伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化型的矮人炮，威力更强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国的新技术，直接让敌人无法动弹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻时间加长，伤害更大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮弹越来越大，敌人已经毫无生存希望。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大贝莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴弹炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶火炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最巨大、最凶猛的火炮之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电可以穿透敌人的护甲，无视任何物理防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术士塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更加强化的威力，撕开护甲和骨肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌军魂飞魄散，臣服在魔法的力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变现实之力，发射致命的魔法射线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -656,12 +704,15 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.21875" style="1" customWidth="1"/>
+    <col min="4" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="20.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="1"/>
     <col min="13" max="13" width="16.44140625" style="1" customWidth="1"/>
@@ -700,13 +751,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -714,655 +765,655 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477AC6F8-9D76-44C6-AA14-0A6040641C24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CCC031-AFCF-4771-92BC-A680EB488CED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,6 +369,130 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +824,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -751,13 +871,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,655 +885,655 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CCC031-AFCF-4771-92BC-A680EB488CED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909F5F4E-2E61-4B54-806C-A3D1267958D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,6 +493,26 @@
   </si>
   <si>
     <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -839,7 +859,7 @@
     <col min="14" max="30" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,8 +899,11 @@
       <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -920,8 +943,11 @@
       <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -961,8 +987,11 @@
       <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1002,8 +1031,11 @@
       <c r="M4" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1043,8 +1075,11 @@
       <c r="M5" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1084,8 +1119,11 @@
       <c r="M6" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1125,8 +1163,11 @@
       <c r="M7" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1166,8 +1207,11 @@
       <c r="M8" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1207,8 +1251,11 @@
       <c r="M9" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1248,8 +1295,11 @@
       <c r="M10" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1289,8 +1339,11 @@
       <c r="M11" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1330,8 +1383,11 @@
       <c r="M12" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="N12" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1371,8 +1427,11 @@
       <c r="M13" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="N13" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1412,8 +1471,11 @@
       <c r="M14" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="N14" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1453,8 +1515,11 @@
       <c r="M15" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="N15" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1494,8 +1559,11 @@
       <c r="M16" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="N16" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1534,6 +1602,9 @@
       </c>
       <c r="M17" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909F5F4E-2E61-4B54-806C-A3D1267958D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A2A311-81ED-4DBF-AC6D-A5A96F07F7D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="151">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,6 +514,59 @@
   <si>
     <t>Magic</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Help/Tower/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Help/Tower/2</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/3</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/4</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/5</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/6</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/7</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/8</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/9</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/10</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/11</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/12</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/13</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/14</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/15</t>
+  </si>
+  <si>
+    <t>Main/Help/Tower/16</t>
   </si>
 </sst>
 </file>
@@ -844,7 +897,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -856,10 +909,12 @@
     <col min="11" max="11" width="20.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="1"/>
     <col min="13" max="13" width="16.44140625" style="1" customWidth="1"/>
-    <col min="14" max="30" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="20.44140625" style="1" customWidth="1"/>
+    <col min="16" max="30" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,8 +957,11 @@
       <c r="N1" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -946,8 +1004,11 @@
       <c r="N2" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -990,8 +1051,11 @@
       <c r="N3" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1034,8 +1098,11 @@
       <c r="N4" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1078,8 +1145,11 @@
       <c r="N5" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1122,8 +1192,11 @@
       <c r="N6" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1166,8 +1239,11 @@
       <c r="N7" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1210,8 +1286,11 @@
       <c r="N8" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1254,8 +1333,11 @@
       <c r="N9" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1298,8 +1380,11 @@
       <c r="N10" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1342,8 +1427,11 @@
       <c r="N11" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1386,8 +1474,11 @@
       <c r="N12" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1430,8 +1521,11 @@
       <c r="N13" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1474,8 +1568,11 @@
       <c r="N14" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1518,8 +1615,11 @@
       <c r="N15" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="O15" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1662,11 @@
       <c r="N16" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="O16" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1605,6 +1708,9 @@
       </c>
       <c r="N17" s="1" t="s">
         <v>133</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A2A311-81ED-4DBF-AC6D-A5A96F07F7D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACD591-0EBE-49FC-974A-C07E84FA46E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="14340" windowHeight="10428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="155">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,21 +81,12 @@
     <t>2</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
     <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,6 +554,38 @@
   </si>
   <si>
     <t>Main/Help/Tower/16</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -896,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -914,7 +933,7 @@
     <col min="16" max="30" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,19 +965,19 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,751 +985,751 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACD591-0EBE-49FC-974A-C07E84FA46E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B56BB22-6ECD-4A01-9454-7F443A466B21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="14340" windowHeight="10428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,21 +200,12 @@
     <t>Bullect/Bullect_6</t>
   </si>
   <si>
-    <t>Bullect/Bullect_7</t>
-  </si>
-  <si>
     <t>Bullect/Bullect_10</t>
   </si>
   <si>
-    <t>Bullect/Bullect_11</t>
-  </si>
-  <si>
     <t>Bullect/Bullect_14</t>
   </si>
   <si>
-    <t>Bullect/Bullect_15</t>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -585,6 +576,10 @@
   </si>
   <si>
     <t>2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullect/Bullect_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +911,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -974,10 +969,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -985,22 +980,22 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -1021,10 +1016,10 @@
         <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1032,22 +1027,22 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
@@ -1068,10 +1063,10 @@
         <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1079,28 +1074,28 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -1115,10 +1110,10 @@
         <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1126,28 +1121,28 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>11</v>
@@ -1162,10 +1157,10 @@
         <v>35</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1173,28 +1168,28 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>11</v>
@@ -1209,10 +1204,10 @@
         <v>36</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1220,28 +1215,28 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
@@ -1256,10 +1251,10 @@
         <v>37</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1267,34 +1262,34 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
@@ -1303,10 +1298,10 @@
         <v>38</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1314,28 +1309,28 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>11</v>
@@ -1350,10 +1345,10 @@
         <v>39</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1361,28 +1356,28 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>11</v>
@@ -1397,10 +1392,10 @@
         <v>40</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1408,34 +1403,34 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>29</v>
@@ -1444,10 +1439,10 @@
         <v>41</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1455,34 +1450,34 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>30</v>
@@ -1491,10 +1486,10 @@
         <v>42</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1502,28 +1497,28 @@
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>11</v>
@@ -1538,10 +1533,10 @@
         <v>43</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1549,25 +1544,25 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>17</v>
@@ -1579,16 +1574,16 @@
         <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1596,46 +1591,46 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1643,46 +1638,46 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1690,28 +1685,28 @@
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>11</v>
@@ -1720,16 +1715,16 @@
         <v>51</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B56BB22-6ECD-4A01-9454-7F443A466B21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBB4F54-63F0-44E2-8504-68475B181A1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,6 +580,18 @@
   </si>
   <si>
     <t>Bullect/Bullect_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,7 +923,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -998,7 +1010,7 @@
         <v>88</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>19</v>
@@ -1186,7 +1198,7 @@
         <v>145</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>112</v>
@@ -1374,7 +1386,7 @@
         <v>147</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>111</v>
@@ -1562,7 +1574,7 @@
         <v>149</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>17</v>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBB4F54-63F0-44E2-8504-68475B181A1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5AE88B-B6B0-4CA0-A810-127465477F39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,10 +87,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子弹地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,14 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,14 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>audio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,6 +568,30 @@
   </si>
   <si>
     <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,7 +923,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -981,10 +981,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,46 +992,46 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,46 +1039,46 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1086,46 +1086,46 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1133,610 +1133,610 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5AE88B-B6B0-4CA0-A810-127465477F39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B381C-D438-477D-AB55-DFB34A9E8F77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,6 +592,10 @@
   </si>
   <si>
     <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,7 +927,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1061,7 @@
         <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>18</v>
@@ -1104,7 +1108,7 @@
         <v>138</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>152</v>
@@ -1151,7 +1155,7 @@
         <v>138</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>150</v>
@@ -1245,7 +1249,7 @@
         <v>140</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>110</v>
@@ -1292,7 +1296,7 @@
         <v>139</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>111</v>
@@ -1339,7 +1343,7 @@
         <v>139</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>112</v>
@@ -1433,7 +1437,7 @@
         <v>139</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>113</v>
@@ -1480,7 +1484,7 @@
         <v>142</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>153</v>
@@ -1527,7 +1531,7 @@
         <v>141</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>151</v>
@@ -1621,7 +1625,7 @@
         <v>145</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>114</v>
@@ -1668,7 +1672,7 @@
         <v>144</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>115</v>
@@ -1715,7 +1719,7 @@
         <v>143</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>154</v>

--- a/Excel/TowerInfo.xlsx
+++ b/Excel/TowerInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B381C-D438-477D-AB55-DFB34A9E8F77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A38704-AA4E-46E7-8642-5CB33D609253}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="159">
   <si>
     <t>塔ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,7 +595,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.8</t>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,7 +935,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1163,7 @@
         <v>138</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>150</v>
@@ -1343,7 +1351,7 @@
         <v>139</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>112</v>
@@ -1531,7 +1539,7 @@
         <v>141</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>151</v>
@@ -1719,7 +1727,7 @@
         <v>143</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>154</v>
